--- a/diagrams/data.xlsx
+++ b/diagrams/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agarc\Desktop\Me\Dowlinglab\CO2_IL\extractive-distillation2\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A0FEF2-67C2-43A0-AFBF-E53BC9B4505A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7E071-00D5-4BFE-B68F-E8953F723452}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{B2BB4C00-246E-435D-BD73-50853059C512}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t xml:space="preserve">MW </t>
   </si>
@@ -82,19 +82,49 @@
   </si>
   <si>
     <t>IL</t>
+  </si>
+  <si>
+    <t>[0.92237487 0.87849677 0.83428289 0.80000012 0.80000002]</t>
+  </si>
+  <si>
+    <t>[1.e-08 1.e-08 1.e-08 1.e-08 1.e-08]</t>
+  </si>
+  <si>
+    <t>[1.47637330e-04 6.41388685e-02 1.28797040e-01 1.81999918e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.97999981e-01]</t>
+  </si>
+  <si>
+    <t>[5.42309942e-04 2.41648758e-01 4.98764958e-01 7.43118695e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.66453918e-01]</t>
+  </si>
+  <si>
+    <t>[0.07747749 0.05736436 0.03692007 0.01799997 0.002     ]</t>
+  </si>
+  <si>
+    <t>[0.99945769 0.75835124 0.50123504 0.25688131 0.03354608]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -188,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35149E0-49EE-4ED4-B757-4B3C7918848A}">
-  <dimension ref="B4:N23"/>
+  <dimension ref="B4:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:L23"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +716,7 @@
         <v>17.90334</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" ref="J10:K14" si="2">G11*H11</f>
+        <f t="shared" ref="K11:K14" si="2">G11*H11</f>
         <v>185.71162999999999</v>
       </c>
       <c r="L11" s="3">
@@ -738,7 +771,7 @@
         <v>3.5607753999999998E-2</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" ref="M11:M14" si="5">K12/1000</f>
+        <f t="shared" ref="M12:M14" si="5">K12/1000</f>
         <v>0.12555072400000003</v>
       </c>
       <c r="N12" s="3">
@@ -773,7 +806,7 @@
         <v>122.45316200000001</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
+        <f>F13*H13</f>
         <v>52.772226000000003</v>
       </c>
       <c r="K13" s="3">
@@ -781,7 +814,7 @@
         <v>69.482010000000002</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
+        <f>J13/1000</f>
         <v>5.2772226000000005E-2</v>
       </c>
       <c r="M13" s="3">
@@ -993,15 +1026,15 @@
         <v>73.204768000000001</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" ref="L20:L23" si="9">J20/1000</f>
+        <f>J20/1000</f>
         <v>6.2803780000000005E-3</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" ref="M20:M23" si="10">K20/1000</f>
+        <f t="shared" ref="M20:M23" si="9">K20/1000</f>
         <v>7.3204768000000003E-2</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" ref="N20:N23" si="11">1-L20-M20</f>
+        <f t="shared" ref="N20:N23" si="10">1-L20-M20</f>
         <v>0.92051485399999999</v>
       </c>
     </row>
@@ -1040,15 +1073,15 @@
         <v>47.941165999999996</v>
       </c>
       <c r="L21" s="3">
+        <f t="shared" ref="L20:L23" si="11">J21/1000</f>
+        <v>1.3384878000000001E-2</v>
+      </c>
+      <c r="M21" s="3">
         <f t="shared" si="9"/>
-        <v>1.3384878000000001E-2</v>
-      </c>
-      <c r="M21" s="3">
+        <v>4.7941165999999993E-2</v>
+      </c>
+      <c r="N21" s="3">
         <f t="shared" si="10"/>
-        <v>4.7941165999999993E-2</v>
-      </c>
-      <c r="N21" s="3">
-        <f t="shared" si="11"/>
         <v>0.93867395600000003</v>
       </c>
     </row>
@@ -1087,15 +1120,15 @@
         <v>23.729030000000002</v>
       </c>
       <c r="L22" s="3">
+        <f t="shared" si="11"/>
+        <v>2.0290452E-2</v>
+      </c>
+      <c r="M22" s="3">
         <f t="shared" si="9"/>
-        <v>2.0290452E-2</v>
-      </c>
-      <c r="M22" s="3">
+        <v>2.3729030000000002E-2</v>
+      </c>
+      <c r="N22" s="3">
         <f t="shared" si="10"/>
-        <v>2.3729030000000002E-2</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="11"/>
         <v>0.95598051799999995</v>
       </c>
     </row>
@@ -1134,16 +1167,56 @@
         <v>2.8418000000000002E-2</v>
       </c>
       <c r="L23" s="3">
+        <f t="shared" si="11"/>
+        <v>2.7139190000000004E-2</v>
+      </c>
+      <c r="M23" s="3">
         <f t="shared" si="9"/>
-        <v>2.7139190000000004E-2</v>
-      </c>
-      <c r="M23" s="3">
+        <v>2.8418000000000001E-5</v>
+      </c>
+      <c r="N23" s="3">
         <f t="shared" si="10"/>
-        <v>2.8418000000000001E-5</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" si="11"/>
         <v>0.97283239200000005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1152,5 +1225,6 @@
     <mergeCell ref="B16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/diagrams/data.xlsx
+++ b/diagrams/data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agarc\Desktop\Me\Dowlinglab\CO2_IL\extractive-distillation2\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7E071-00D5-4BFE-B68F-E8953F723452}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA099B9D-8C8F-43A9-A480-486D192E37C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{B2BB4C00-246E-435D-BD73-50853059C512}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B2BB4C00-246E-435D-BD73-50853059C512}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t xml:space="preserve">MW </t>
   </si>
@@ -107,12 +109,66 @@
   <si>
     <t>[0.99945769 0.75835124 0.50123504 0.25688131 0.03354608]</t>
   </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Absorption</t>
+  </si>
+  <si>
+    <t>Binary Data</t>
+  </si>
+  <si>
+    <t>Ternary Data</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFC </t>
+  </si>
+  <si>
+    <t>mmol/g</t>
+  </si>
+  <si>
+    <t>mol frac</t>
+  </si>
+  <si>
+    <t>mass frac</t>
+  </si>
+  <si>
+    <t>R-32/IL</t>
+  </si>
+  <si>
+    <t>R-125/IL</t>
+  </si>
+  <si>
+    <t>Prop</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +182,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -201,15 +270,501 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,8 +774,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,6 +816,1652 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>[bmim][PF6]</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> @ 25C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 kPa total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5299999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E227-4AF6-B87B-03C8D5F4807F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100 kPa R-125</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1400000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5500000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E227-4AF6-B87B-03C8D5F4807F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>100 kPa R-32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050">
+                    <a:alpha val="95000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E227-4AF6-B87B-03C8D5F4807F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>250 kPa Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.86939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56899999999999895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27339999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E227-4AF6-B87B-03C8D5F4807F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>250 kPa R125</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27279999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E227-4AF6-B87B-03C8D5F4807F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>250 kPa R-32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.86839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65349999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2445</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>-2.99999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E227-4AF6-B87B-03C8D5F4807F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>KU data 100 kPa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$35:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$35:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.28674020054555582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5562741265094042E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E227-4AF6-B87B-03C8D5F4807F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>KU data 250 kPa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="97000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$37:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$37:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.74255493120599314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22255103440493551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E227-4AF6-B87B-03C8D5F4807F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="707801768"/>
+        <c:axId val="707800784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="707801768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>R-125 Inlet Mole</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Fraction</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707800784"/>
+        <c:crossesAt val="-0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="707800784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Absoprtion (mmol/g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.9834289356277884E-2"/>
+              <c:y val="0.3853744266536846"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707801768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{000B4C70-078C-4573-A358-112A00F06329}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F67F25F-B675-42AE-883B-7727169E0282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,23 +2761,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35149E0-49EE-4ED4-B757-4B3C7918848A}">
-  <dimension ref="B4:N33"/>
+  <dimension ref="B4:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -563,24 +2792,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,7 +2838,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -638,7 +2867,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>250</v>
       </c>
@@ -684,8 +2913,40 @@
         <f>1-L10-M10</f>
         <v>0.75321808800000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f t="shared" ref="P10:P14" si="0">F10*120/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q14" si="1">G10*52/1000</f>
+        <v>4.5156799999999997E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R14" si="2">1-Q10-P10</f>
+        <v>0.9548432</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10:S14" si="3">R10/284*1000</f>
+        <v>3.3621239436619716</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:T14" si="4">S10+G10</f>
+        <v>4.2305239436619715</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:U14" si="5">F10/T10</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:V14" si="6">G10/T10</f>
+        <v>0.20527008275204484</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ref="W10:W14" si="7">1-V10-U10</f>
+        <v>0.79472991724795516</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>250</v>
       </c>
@@ -708,19 +2969,19 @@
         <v>284.18</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" ref="I11:I14" si="0">E11*H11</f>
+        <f>E11*H11</f>
         <v>203.870732</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ref="J11:J14" si="1">F11*H11</f>
+        <f>F11*H11</f>
         <v>17.90334</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" ref="K11:K14" si="2">G11*H11</f>
+        <f>G11*H11</f>
         <v>185.71162999999999</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" ref="L11:L14" si="3">J11/1000</f>
+        <f>J11/1000</f>
         <v>1.790334E-2</v>
       </c>
       <c r="M11" s="3">
@@ -728,11 +2989,43 @@
         <v>0.18571162999999999</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" ref="N11:N14" si="4">1-L11-M11</f>
+        <f t="shared" ref="N11:N14" si="8">1-L11-M11</f>
         <v>0.79638502999999994</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>7.5600000000000007E-3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>3.3981999999999998E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0.95845800000000003</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>3.3748521126760567</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>4.0283521126760569</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>1.5639149269438799E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="6"/>
+        <v>0.16222514361235327</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="7"/>
+        <v>0.82213570711820794</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>250</v>
       </c>
@@ -755,31 +3048,63 @@
         <v>284.18</v>
       </c>
       <c r="I12" s="3">
+        <f t="shared" ref="I12:I14" si="9">E12*H12</f>
+        <v>161.69841999999971</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12" si="10">F12*H12</f>
+        <v>35.607754</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ref="K12:K14" si="11">G12*H12</f>
+        <v>125.55072400000002</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" ref="L12" si="12">J12/1000</f>
+        <v>3.5607753999999998E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" ref="M12:M14" si="13">K12/1000</f>
+        <v>0.12555072400000003</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="8"/>
+        <v>0.83884152199999995</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
-        <v>161.69841999999971</v>
-      </c>
-      <c r="J12" s="3">
+        <v>1.5035999999999999E-2</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="1"/>
-        <v>35.607754</v>
-      </c>
-      <c r="K12" s="3">
+        <v>2.29736E-2</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="2"/>
-        <v>125.55072400000002</v>
-      </c>
-      <c r="L12" s="3">
+        <v>0.96199039999999991</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="3"/>
-        <v>3.5607753999999998E-2</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" ref="M12:M14" si="5">K12/1000</f>
-        <v>0.12555072400000003</v>
-      </c>
-      <c r="N12" s="3">
+        <v>3.3872901408450704</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="4"/>
-        <v>0.83884152199999995</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3.8290901408450706</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>3.2723178455220853E-2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>0.115379890195663</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>0.85189693134911615</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>250</v>
       </c>
@@ -802,7 +3127,7 @@
         <v>284.18</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>122.45316200000001</v>
       </c>
       <c r="J13" s="3">
@@ -822,11 +3147,43 @@
         <v>6.9482009999999997E-2</v>
       </c>
       <c r="N13" s="3">
+        <f t="shared" si="8"/>
+        <v>0.87774576400000004</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>2.2283999999999998E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1.2714E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0.96500200000000003</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>3.3978943661971832</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="4"/>
-        <v>0.87774576400000004</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3.6423943661971832</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>5.0982947295154867E-2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="6"/>
+        <v>6.7126174548548009E-2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>0.88189087815629719</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>250</v>
       </c>
@@ -849,48 +3206,80 @@
         <v>284.18</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="9"/>
+        <v>77.694811999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <f>F14*H14</f>
+        <v>77.524304000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="11"/>
+        <v>-8.5253999999999719E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f>J14/1000</f>
+        <v>7.7524304000000002E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="13"/>
+        <v>-8.5253999999999723E-5</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92256095000000005</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="0"/>
-        <v>77.694811999999999</v>
-      </c>
-      <c r="J14" s="3">
+        <v>3.2735999999999994E-2</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="1"/>
-        <v>77.524304000000001</v>
-      </c>
-      <c r="K14" s="3">
+        <v>-1.5599999999999949E-5</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="2"/>
-        <v>-8.5253999999999719E-2</v>
-      </c>
-      <c r="L14" s="3">
+        <v>0.96727960000000002</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="3"/>
-        <v>7.7524304000000002E-2</v>
-      </c>
-      <c r="M14" s="3">
+        <v>3.4059140845070424</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>3.4056140845070422</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="5"/>
-        <v>-8.5253999999999723E-5</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="4"/>
-        <v>0.92256095000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+        <v>8.0103027891807482E-2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>-8.8089840056972745E-5</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>0.91998506194824958</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,7 +3306,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,7 +3333,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>100.01</v>
       </c>
@@ -990,8 +3379,48 @@
         <f>1-L19-M19</f>
         <v>0.90323670999999994</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f>F19*120.0214/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>G19*52.024/1000</f>
+        <v>1.7714172E-2</v>
+      </c>
+      <c r="R19">
+        <f>1-Q19-P19</f>
+        <v>0.98228582799999997</v>
+      </c>
+      <c r="S19">
+        <f>R19/284*1000</f>
+        <v>3.4587529154929579</v>
+      </c>
+      <c r="T19">
+        <f>S19+G19</f>
+        <v>3.799252915492958</v>
+      </c>
+      <c r="U19">
+        <f>F19/T19</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>G19/T19</f>
+        <v>8.9622883123015182E-2</v>
+      </c>
+      <c r="W19">
+        <f>1-V19-U19</f>
+        <v>0.91037711687698486</v>
+      </c>
+      <c r="X19">
+        <f>V19+U19</f>
+        <v>8.9622883123015182E-2</v>
+      </c>
+      <c r="Y19">
+        <f>P19+Q19</f>
+        <v>1.7714172E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>100</v>
       </c>
@@ -1002,7 +3431,7 @@
         <v>0.75</v>
       </c>
       <c r="E20" s="1">
-        <v>0.2802</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F20" s="1">
         <v>2.2100000000000002E-2</v>
@@ -1014,15 +3443,15 @@
         <v>284.18</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:I23" si="6">E20*H20</f>
-        <v>79.627235999999996</v>
+        <f t="shared" ref="I20:I23" si="14">E20*H20</f>
+        <v>79.570400000000006</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:J23" si="7">F20*H20</f>
+        <f>F20*H20</f>
         <v>6.2803780000000007</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:K23" si="8">G20*H20</f>
+        <f t="shared" ref="K20:K23" si="15">G20*H20</f>
         <v>73.204768000000001</v>
       </c>
       <c r="L20" s="3">
@@ -1030,15 +3459,55 @@
         <v>6.2803780000000005E-3</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" ref="M20:M23" si="9">K20/1000</f>
+        <f t="shared" ref="M20:M23" si="16">K20/1000</f>
         <v>7.3204768000000003E-2</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" ref="N20:N23" si="10">1-L20-M20</f>
+        <f t="shared" ref="N20:N23" si="17">1-L20-M20</f>
         <v>0.92051485399999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <f t="shared" ref="P20:P23" si="18">F20*120.0214/1000</f>
+        <v>2.65247294E-3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20:Q23" si="19">G20*52.024/1000</f>
+        <v>1.34013824E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20:R23" si="20">1-Q20-P20</f>
+        <v>0.98394614465999997</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20:S23" si="21">R20/284*1000</f>
+        <v>3.4645991009154931</v>
+      </c>
+      <c r="T20">
+        <f>S20+G20</f>
+        <v>3.7221991009154931</v>
+      </c>
+      <c r="U20">
+        <f>F20/T20</f>
+        <v>5.937350313841191E-3</v>
+      </c>
+      <c r="V20">
+        <f>G20/T20</f>
+        <v>6.9206400038257496E-2</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W23" si="22">1-V20-U20</f>
+        <v>0.92485624964790125</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20:X22" si="23">V20+U20</f>
+        <v>7.5143750352098693E-2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20:Y23" si="24">P20+Q20</f>
+        <v>1.6053855339999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>100</v>
       </c>
@@ -1049,7 +3518,7 @@
         <v>0.5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.21629999999999999</v>
+        <v>0.21609999999999999</v>
       </c>
       <c r="F21" s="1">
         <v>4.7100000000000003E-2</v>
@@ -1061,31 +3530,71 @@
         <v>284.18</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="6"/>
-        <v>61.468133999999999</v>
+        <f t="shared" si="14"/>
+        <v>61.411297999999995</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J21:J23" si="25">F21*H21</f>
         <v>13.384878</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>47.941165999999996</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" ref="L20:L23" si="11">J21/1000</f>
+        <f t="shared" ref="L21:L23" si="26">J21/1000</f>
         <v>1.3384878000000001E-2</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.7941165999999993E-2</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.93867395600000003</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f t="shared" si="18"/>
+        <v>5.6530079400000004E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="19"/>
+        <v>8.7764487999999995E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="20"/>
+        <v>0.98557054326000004</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="21"/>
+        <v>3.470318814295775</v>
+      </c>
+      <c r="T21">
+        <f>S21+G21</f>
+        <v>3.6390188142957749</v>
+      </c>
+      <c r="U21">
+        <f>F21/T21</f>
+        <v>1.2943049322792475E-2</v>
+      </c>
+      <c r="V21">
+        <f>G21/T21</f>
+        <v>4.6358650122188753E-2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="22"/>
+        <v>0.9406983005550188</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="23"/>
+        <v>5.9301699444981232E-2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="24"/>
+        <v>1.4429456739999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>100</v>
       </c>
@@ -1096,7 +3605,7 @@
         <v>0.25</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1552</v>
+        <v>0.155</v>
       </c>
       <c r="F22" s="1">
         <v>7.1400000000000005E-2</v>
@@ -1108,31 +3617,71 @@
         <v>284.18</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="6"/>
-        <v>44.104736000000003</v>
+        <f t="shared" si="14"/>
+        <v>44.047899999999998</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>20.290452000000002</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>23.729030000000002</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>2.0290452E-2</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.3729030000000002E-2</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.95598051799999995</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f t="shared" si="18"/>
+        <v>8.56952796E-3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="19"/>
+        <v>4.3440040000000003E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="20"/>
+        <v>0.98708646804</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="21"/>
+        <v>3.4756565776056334</v>
+      </c>
+      <c r="T22">
+        <f>S22+G22</f>
+        <v>3.5591565776056333</v>
+      </c>
+      <c r="U22">
+        <f>F22/T22</f>
+        <v>2.006093253925716E-2</v>
+      </c>
+      <c r="V22">
+        <f>G22/T22</f>
+        <v>2.3460614384145279E-2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="22"/>
+        <v>0.95647845307659762</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="23"/>
+        <v>4.3521546923402439E-2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="24"/>
+        <v>1.291353196E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>100</v>
       </c>
@@ -1143,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>9.5899999999999999E-2</v>
+        <v>9.5299999999999996E-2</v>
       </c>
       <c r="F23" s="1">
         <v>9.5500000000000002E-2</v>
@@ -1155,68 +3704,169 @@
         <v>284.18</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="6"/>
-        <v>27.252862</v>
+        <f t="shared" si="14"/>
+        <v>27.082353999999999</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>27.139190000000003</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.8418000000000002E-2</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>2.7139190000000004E-2</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.8418000000000001E-5</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.97283239200000005</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
+      <c r="P23">
+        <f t="shared" si="18"/>
+        <v>1.1462043700000001E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="19"/>
+        <v>5.2024000000000004E-6</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="20"/>
+        <v>0.98853275389999995</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="21"/>
+        <v>3.4807491334507041</v>
+      </c>
+      <c r="T23">
+        <f>S23+G23</f>
+        <v>3.4808491334507043</v>
+      </c>
+      <c r="U23">
+        <f>F23/T23</f>
+        <v>2.743583428602292E-2</v>
+      </c>
+      <c r="V23">
+        <f>G23/T23</f>
+        <v>2.8728622289029236E-5</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="22"/>
+        <v>0.9725354370916881</v>
+      </c>
+      <c r="X23">
+        <f>V23+U23</f>
+        <v>2.7464562908311948E-2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="24"/>
+        <v>1.14672461E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C27" s="7" t="s">
+      <c r="Q26">
+        <f>S26/R26*1000</f>
+        <v>0.28531955790485342</v>
+      </c>
+      <c r="R26">
+        <f>S26*U26+T26*V26</f>
+        <v>266.36799999999999</v>
+      </c>
+      <c r="S26">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="T26">
+        <f>1-S26</f>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U26">
+        <v>52</v>
+      </c>
+      <c r="V26">
+        <v>284</v>
+      </c>
+      <c r="W26">
+        <f>S26</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="7" t="s">
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27">
+        <f>S27/R27*1000</f>
+        <v>0.28680103841729387</v>
+      </c>
+      <c r="R27">
+        <f>S27*U27+T27*V27</f>
+        <v>266.28216000000003</v>
+      </c>
+      <c r="S27">
+        <v>7.6369999999999993E-2</v>
+      </c>
+      <c r="T27">
+        <f>1-S27</f>
+        <v>0.92362999999999995</v>
+      </c>
+      <c r="U27">
+        <v>52</v>
+      </c>
+      <c r="V27">
+        <v>284</v>
+      </c>
+      <c r="W27">
+        <f>S27</f>
+        <v>7.6369999999999993E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C29" s="7" t="s">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C30" s="7" t="s">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C31" s="7" t="s">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="7" t="s">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="7" t="s">
+      <c r="S32">
+        <f>1-0.017732</f>
+        <v>0.98226800000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="S33">
+        <f>1-0.011502</f>
+        <v>0.98849799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1227,4 +3877,1330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9830A7F3-8E13-47D1-BD7C-584C14718F56}">
+  <dimension ref="A1:Q83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>250</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="G4" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D4*G4</f>
+        <v>247.066092</v>
+      </c>
+      <c r="I4" s="3">
+        <f>E4*G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>F4*G4</f>
+        <v>246.78191200000001</v>
+      </c>
+      <c r="K4" s="3">
+        <f>I4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f>J4/1000</f>
+        <v>0.24678191199999999</v>
+      </c>
+      <c r="M4" s="3">
+        <f>1-K4-L4</f>
+        <v>0.75321808800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="G5" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H5" s="3">
+        <f>D5*G5</f>
+        <v>203.870732</v>
+      </c>
+      <c r="I5" s="3">
+        <f>E5*G5</f>
+        <v>17.90334</v>
+      </c>
+      <c r="J5" s="3">
+        <f>F5*G5</f>
+        <v>185.71162999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <f>I5/1000</f>
+        <v>1.790334E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f>J5/1000</f>
+        <v>0.18571162999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M8" si="0">1-K5-L5</f>
+        <v>0.79638502999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.56899999999999895</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.44180000000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H8" si="1">D6*G6</f>
+        <v>161.69841999999971</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6" si="2">E6*G6</f>
+        <v>35.607754</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" ref="J6:J8" si="3">F6*G6</f>
+        <v>125.55072400000002</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:L8" si="4">I6/1000</f>
+        <v>3.5607753999999998E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12555072400000003</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83884152199999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>250</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.43090000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.1857</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2445</v>
+      </c>
+      <c r="G7" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>122.45316200000001</v>
+      </c>
+      <c r="I7" s="3">
+        <f>E7*G7</f>
+        <v>52.772226000000003</v>
+      </c>
+      <c r="J7" s="3">
+        <f>F7*G7</f>
+        <v>69.482010000000002</v>
+      </c>
+      <c r="K7" s="3">
+        <f>I7/1000</f>
+        <v>5.2772226000000005E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f>J7/1000</f>
+        <v>6.9482009999999997E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87774576400000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>250</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-2.99999999999999E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>77.694811999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <f>E8*G8</f>
+        <v>77.524304000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>-8.5253999999999719E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <f>I8/1000</f>
+        <v>7.7524304000000002E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>-8.5253999999999723E-5</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92256095000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>100.01</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.34050000000000002</v>
+      </c>
+      <c r="G13" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H13" s="3">
+        <f>D13*G13</f>
+        <v>96.848544000000004</v>
+      </c>
+      <c r="I13" s="3">
+        <f>E13*G13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f>F13*G13</f>
+        <v>96.763290000000012</v>
+      </c>
+      <c r="K13" s="3">
+        <f>I13/1000</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f>J13/1000</f>
+        <v>9.6763290000000016E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f>1-K13-L13</f>
+        <v>0.90323670999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.2576</v>
+      </c>
+      <c r="G14" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" ref="H14:H17" si="5">D14*G14</f>
+        <v>79.570400000000006</v>
+      </c>
+      <c r="I14" s="3">
+        <f>E14*G14</f>
+        <v>6.2803780000000007</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" ref="J14:J17" si="6">F14*G14</f>
+        <v>73.204768000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <f>I14/1000</f>
+        <v>6.2803780000000005E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" ref="L14:L17" si="7">J14/1000</f>
+        <v>7.3204768000000003E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" ref="M14:M17" si="8">1-K14-L14</f>
+        <v>0.92051485399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.21609999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="5"/>
+        <v>61.411297999999995</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" ref="I15:I17" si="9">E15*G15</f>
+        <v>13.384878</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="6"/>
+        <v>47.941165999999996</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:K17" si="10">I15/1000</f>
+        <v>1.3384878000000001E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="7"/>
+        <v>4.7941165999999993E-2</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="8"/>
+        <v>0.93867395600000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>100</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="5"/>
+        <v>44.047899999999998</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="9"/>
+        <v>20.290452000000002</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="6"/>
+        <v>23.729030000000002</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="10"/>
+        <v>2.0290452E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="7"/>
+        <v>2.3729030000000002E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95598051799999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>284.18</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="5"/>
+        <v>27.082353999999999</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="9"/>
+        <v>27.139190000000003</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8418000000000002E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="10"/>
+        <v>2.7139190000000004E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="7"/>
+        <v>2.8418000000000001E-5</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="8"/>
+        <v>0.97283239200000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>52.024000000000001</v>
+      </c>
+      <c r="F21">
+        <v>120.02</v>
+      </c>
+      <c r="G21">
+        <v>284.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>298.2</v>
+      </c>
+      <c r="B25" s="6">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="H25" s="8">
+        <f>(F25-C25)/C25</f>
+        <v>0.17539267015706819</v>
+      </c>
+      <c r="I25" s="8">
+        <f>(G25-D25)/D25</f>
+        <v>-1.4508445214378484E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="L25">
+        <f>F25*E21</f>
+        <v>4.6717552000000007</v>
+      </c>
+      <c r="M25">
+        <f>G25*G21</f>
+        <v>258.66063600000001</v>
+      </c>
+      <c r="N25">
+        <f>L25/(L25+M25)</f>
+        <v>1.7740906003666748E-2</v>
+      </c>
+      <c r="O25">
+        <f>N25*(L25+M25)</f>
+        <v>4.6717552000000007</v>
+      </c>
+      <c r="P25">
+        <f>L25+M25</f>
+        <v>263.33239120000002</v>
+      </c>
+      <c r="Q25">
+        <f>N25/E21*1000</f>
+        <v>0.34101387828053875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>298.2</v>
+      </c>
+      <c r="B26" s="10">
+        <v>250000</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.17774999999999999</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.7944</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" ref="H26:I28" si="11">(F26-C26)/C26</f>
+        <v>0.15611814345991559</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.9017041244751752E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="L26">
+        <f>F26*E21</f>
+        <v>10.690932</v>
+      </c>
+      <c r="M26">
+        <f>G26*G21</f>
+        <v>225.75259199999999</v>
+      </c>
+      <c r="N26">
+        <f>L26/(L26+M26)</f>
+        <v>4.5215583912545647E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O28" si="12">N26*(L26+M26)</f>
+        <v>10.690932</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P28" si="13">L26+M26</f>
+        <v>236.443524</v>
+      </c>
+      <c r="Q26">
+        <f>N26/E21*1000</f>
+        <v>0.86912932324591818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>298.2</v>
+      </c>
+      <c r="B27" s="10">
+        <v>100000</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="11"/>
+        <v>0.11666666666666668</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="11"/>
+        <v>-3.7874910430955437E-3</v>
+      </c>
+      <c r="J27">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="L27">
+        <f>F27*F21</f>
+        <v>3.2165360000000001</v>
+      </c>
+      <c r="M27">
+        <f>G27*G21</f>
+        <v>276.56397599999997</v>
+      </c>
+      <c r="N27">
+        <f>L27/(L27+M27)</f>
+        <v>1.1496640623775827E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="12"/>
+        <v>3.2165360000000001</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="13"/>
+        <v>279.78051199999999</v>
+      </c>
+      <c r="Q27">
+        <f>N27/F21*1000</f>
+        <v>9.5789373635859251E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>298.2</v>
+      </c>
+      <c r="B28" s="10">
+        <v>250000</v>
+      </c>
+      <c r="C28" s="10">
+        <v>6.0749999999999998E-2</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.22469135802469128</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="11"/>
+        <v>-9.9475879773237522E-3</v>
+      </c>
+      <c r="J28">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="L28">
+        <f>F28*F21</f>
+        <v>8.9294879999999992</v>
+      </c>
+      <c r="M28">
+        <f>G28*G21</f>
+        <v>263.03700800000001</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28" si="14">L28/(L28+M28)</f>
+        <v>3.2833044258510427E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="12"/>
+        <v>8.9294879999999992</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="13"/>
+        <v>271.96649600000001</v>
+      </c>
+      <c r="Q28">
+        <f>N28/F21*1000</f>
+        <v>0.27356310830286978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="K29">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="L29">
+        <f>C25*E21</f>
+        <v>3.9746335999999998</v>
+      </c>
+      <c r="M29">
+        <f>D25*G21</f>
+        <v>262.46864799999997</v>
+      </c>
+      <c r="N29">
+        <f>L29/(L29+M29)</f>
+        <v>1.4917372193181996E-2</v>
+      </c>
+      <c r="O29">
+        <f>N29*(L29+M29)</f>
+        <v>3.9746335999999998</v>
+      </c>
+      <c r="P29">
+        <f>L29+M29</f>
+        <v>266.44328159999998</v>
+      </c>
+      <c r="Q29">
+        <f>N29/E21*1000</f>
+        <v>0.28674020054555582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="L30">
+        <f>C26*E21</f>
+        <v>9.2472659999999998</v>
+      </c>
+      <c r="M30">
+        <f>D26*G21</f>
+        <v>230.128964</v>
+      </c>
+      <c r="N30">
+        <f>L30/(L30+M30)</f>
+        <v>3.863067774106059E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O32" si="15">N30*(L30+M30)</f>
+        <v>9.2472659999999998</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P32" si="16">L30+M30</f>
+        <v>239.37622999999999</v>
+      </c>
+      <c r="Q30">
+        <f>N30/E21*1000</f>
+        <v>0.74255493120599314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="L31">
+        <f>C27*F21</f>
+        <v>2.8804799999999999</v>
+      </c>
+      <c r="M31">
+        <f>D27*G21</f>
+        <v>277.61544200000003</v>
+      </c>
+      <c r="N31">
+        <f>L31/(L31+M31)</f>
+        <v>1.0269240206636587E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="15"/>
+        <v>2.8804799999999999</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="16"/>
+        <v>280.49592200000001</v>
+      </c>
+      <c r="Q31">
+        <f>N31/F21*1000</f>
+        <v>8.5562741265094042E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="L32">
+        <f>C28*F21</f>
+        <v>7.2912149999999993</v>
+      </c>
+      <c r="M32">
+        <f>D28*G21</f>
+        <v>265.67988200000002</v>
+      </c>
+      <c r="N32">
+        <f>L32/(L32+M32)</f>
+        <v>2.6710575149280359E-2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="15"/>
+        <v>7.2912149999999993</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="16"/>
+        <v>272.97109700000004</v>
+      </c>
+      <c r="Q32">
+        <f>N32/F21*1000</f>
+        <v>0.22255103440493551</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>Q29</f>
+        <v>0.28674020054555582</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f>Q31</f>
+        <v>8.5562741265094042E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>Q30</f>
+        <v>0.74255493120599314</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f>Q32</f>
+        <v>0.22255103440493551</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="54"/>
+    </row>
+    <row r="42" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="32">
+        <v>298.2</v>
+      </c>
+      <c r="D44" s="33">
+        <v>100000</v>
+      </c>
+      <c r="E44" s="34">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="G44" s="36">
+        <v>1.4917372193181996E-2</v>
+      </c>
+      <c r="H44" s="36">
+        <f>1-G44</f>
+        <v>0.98508262780681799</v>
+      </c>
+      <c r="I44" s="37">
+        <v>0.28674020054555582</v>
+      </c>
+      <c r="J44" s="34">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="K44" s="35">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="L44" s="36">
+        <v>1.7740906003666748E-2</v>
+      </c>
+      <c r="M44" s="36">
+        <f>1-L44</f>
+        <v>0.98225909399633327</v>
+      </c>
+      <c r="N44" s="38">
+        <v>0.34101387828053875</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="47"/>
+      <c r="C45" s="26">
+        <v>298.2</v>
+      </c>
+      <c r="D45" s="24">
+        <v>250000</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="G45" s="15">
+        <v>4.1224909739082653E-2</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" ref="H45:H47" si="17">1-G45</f>
+        <v>0.95877509026091734</v>
+      </c>
+      <c r="I45" s="22">
+        <v>0.79242099298559621</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="K45" s="14">
+        <v>0.7944</v>
+      </c>
+      <c r="L45" s="15">
+        <v>4.5215583912545647E-2</v>
+      </c>
+      <c r="M45" s="15">
+        <f t="shared" ref="M45:M47" si="18">1-L45</f>
+        <v>0.95478441608745435</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0.86912932324591818</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="26">
+        <v>298.2</v>
+      </c>
+      <c r="D46" s="24">
+        <v>100000</v>
+      </c>
+      <c r="E46" s="16">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="G46" s="15">
+        <v>9.8879515144847316E-3</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="17"/>
+        <v>0.99011204848551526</v>
+      </c>
+      <c r="I46" s="22">
+        <v>8.2385864976543349E-2</v>
+      </c>
+      <c r="J46" s="16">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="K46" s="14">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="L46" s="15">
+        <v>1.1496640623775801E-2</v>
+      </c>
+      <c r="M46" s="15">
+        <f t="shared" si="18"/>
+        <v>0.98850335937622424</v>
+      </c>
+      <c r="N46" s="17">
+        <v>9.5789373635859251E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="48"/>
+      <c r="C47" s="27">
+        <v>298.2</v>
+      </c>
+      <c r="D47" s="25">
+        <v>250000</v>
+      </c>
+      <c r="E47" s="18">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="F47" s="19">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="G47" s="20">
+        <v>2.8568543777676005E-2</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="17"/>
+        <v>0.97143145622232396</v>
+      </c>
+      <c r="I47" s="23">
+        <v>0.23803152622626234</v>
+      </c>
+      <c r="J47" s="18">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="K47" s="19">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="L47" s="20">
+        <v>3.2833044258510427E-2</v>
+      </c>
+      <c r="M47" s="20">
+        <f t="shared" si="18"/>
+        <v>0.96716695574148959</v>
+      </c>
+      <c r="N47" s="21">
+        <v>0.27356310830286978</v>
+      </c>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="B44:B45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/diagrams/data.xlsx
+++ b/diagrams/data.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agarc\Desktop\Me\Dowlinglab\CO2_IL\extractive-distillation2\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA099B9D-8C8F-43A9-A480-486D192E37C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA5AD1-EBE0-4BED-9336-B1E46B8184F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B2BB4C00-246E-435D-BD73-50853059C512}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{B2BB4C00-246E-435D-BD73-50853059C512}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="PF6" sheetId="2" r:id="rId3"/>
+    <sheet name="BF4" sheetId="4" r:id="rId4"/>
+    <sheet name="BF4-2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
   <si>
     <t xml:space="preserve">MW </t>
   </si>
@@ -160,15 +162,86 @@
   <si>
     <t>Units</t>
   </si>
+  <si>
+    <t>BF4</t>
+  </si>
+  <si>
+    <t>Sample Dry Mass</t>
+  </si>
+  <si>
+    <t>Total Weight</t>
+  </si>
+  <si>
+    <t>Absorption</t>
+  </si>
+  <si>
+    <t>σ[Absorption]</t>
+  </si>
+  <si>
+    <t>MC Reactor T</t>
+  </si>
+  <si>
+    <t>R-125 Inlet Mole Fraction</t>
+  </si>
+  <si>
+    <t>R-32 Selectivity</t>
+  </si>
+  <si>
+    <t>R-32 σ[Selectivity]</t>
+  </si>
+  <si>
+    <t>m.abs[R-125]</t>
+  </si>
+  <si>
+    <t>m.abs[R-32]</t>
+  </si>
+  <si>
+    <t>σ(m.abs[R-125]</t>
+  </si>
+  <si>
+    <t>σ(m.abs[R-32] _x000D_</t>
+  </si>
+  <si>
+    <t>(mg)</t>
+  </si>
+  <si>
+    <t>(mbar)</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>(°C)</t>
+  </si>
+  <si>
+    <t>(mmol/g))</t>
+  </si>
+  <si>
+    <t>x_r32</t>
+  </si>
+  <si>
+    <t>x_IL</t>
+  </si>
+  <si>
+    <t>x_R125</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="######.0"/>
+    <numFmt numFmtId="166" formatCode="####.0000"/>
+    <numFmt numFmtId="167" formatCode="###.0000"/>
+    <numFmt numFmtId="168" formatCode="###.00000"/>
+    <numFmt numFmtId="169" formatCode="###.00"/>
+    <numFmt numFmtId="170" formatCode="###.000"/>
+    <numFmt numFmtId="171" formatCode="####.00000"/>
+    <numFmt numFmtId="172" formatCode="#.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +262,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +308,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -670,11 +781,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -801,8 +1022,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Data" xfId="1" xr:uid="{517BB064-D4DE-49BB-BA5F-BFA0C1F0CD4B}"/>
+    <cellStyle name="DataHeader" xfId="2" xr:uid="{260385F5-29B0-49B4-97E8-1EAFB7A57C37}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -937,7 +1277,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$B$17</c:f>
+              <c:f>'PF6'!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -961,7 +1301,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$13:$D$17</c:f>
+              <c:f>'PF6'!$D$13:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1023,7 +1363,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$B$17</c:f>
+              <c:f>'PF6'!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1047,7 +1387,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$13:$E$17</c:f>
+              <c:f>'PF6'!$E$13:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1111,7 +1451,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$B$17</c:f>
+              <c:f>'PF6'!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1135,7 +1475,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$13:$F$17</c:f>
+              <c:f>'PF6'!$F$13:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1197,7 +1537,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$8</c:f>
+              <c:f>'PF6'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1221,7 +1561,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$8</c:f>
+              <c:f>'PF6'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1284,7 +1624,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$8</c:f>
+              <c:f>'PF6'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1308,7 +1648,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$E$8</c:f>
+              <c:f>'PF6'!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1371,7 +1711,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$8</c:f>
+              <c:f>'PF6'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1395,7 +1735,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$4:$F$8</c:f>
+              <c:f>'PF6'!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1454,7 +1794,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$35:$C$36</c:f>
+              <c:f>'PF6'!$C$35:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1469,7 +1809,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$35:$D$36</c:f>
+              <c:f>'PF6'!$D$35:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1522,7 +1862,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$37:$C$38</c:f>
+              <c:f>'PF6'!$C$37:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1537,7 +1877,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$37:$D$38</c:f>
+              <c:f>'PF6'!$D$37:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2424,7 +2764,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{000B4C70-078C-4573-A358-112A00F06329}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2435,7 +2775,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2763,25 +3103,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35149E0-49EE-4ED4-B757-4B3C7918848A}">
   <dimension ref="B4:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:N23"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:Z38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>3</v>
       </c>
@@ -2809,7 +3149,7 @@
       <c r="M7" s="45"/>
       <c r="N7" s="46"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2838,7 +3178,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2867,7 +3207,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>250</v>
       </c>
@@ -2922,31 +3262,31 @@
         <v>4.5156799999999997E-2</v>
       </c>
       <c r="R10">
-        <f t="shared" ref="R10:R14" si="2">1-Q10-P10</f>
+        <f>1-Q10-P10</f>
         <v>0.9548432</v>
       </c>
       <c r="S10">
-        <f t="shared" ref="S10:S14" si="3">R10/284*1000</f>
+        <f>R10/284*1000</f>
         <v>3.3621239436619716</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:T14" si="4">S10+G10</f>
+        <f>S10+G10</f>
         <v>4.2305239436619715</v>
       </c>
       <c r="U10">
-        <f t="shared" ref="U10:U14" si="5">F10/T10</f>
+        <f>F10/T10</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" ref="V10:V14" si="6">G10/T10</f>
+        <f t="shared" ref="V10:V14" si="2">G10/T10</f>
         <v>0.20527008275204484</v>
       </c>
       <c r="W10">
-        <f t="shared" ref="W10:W14" si="7">1-V10-U10</f>
+        <f t="shared" ref="W10:W14" si="3">1-V10-U10</f>
         <v>0.79472991724795516</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>250</v>
       </c>
@@ -2989,7 +3329,7 @@
         <v>0.18571162999999999</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" ref="N11:N14" si="8">1-L11-M11</f>
+        <f t="shared" ref="N11:N14" si="4">1-L11-M11</f>
         <v>0.79638502999999994</v>
       </c>
       <c r="P11">
@@ -3001,31 +3341,31 @@
         <v>3.3981999999999998E-2</v>
       </c>
       <c r="R11">
+        <f t="shared" ref="R10:R14" si="5">1-Q11-P11</f>
+        <v>0.95845800000000003</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S10:S14" si="6">R11/284*1000</f>
+        <v>3.3748521126760567</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T10:T14" si="7">S11+G11</f>
+        <v>4.0283521126760569</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ref="U10:U14" si="8">F11/T11</f>
+        <v>1.5639149269438799E-2</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="2"/>
-        <v>0.95845800000000003</v>
-      </c>
-      <c r="S11">
+        <v>0.16222514361235327</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="3"/>
-        <v>3.3748521126760567</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="4"/>
-        <v>4.0283521126760569</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="5"/>
-        <v>1.5639149269438799E-2</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="6"/>
-        <v>0.16222514361235327</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="7"/>
         <v>0.82213570711820794</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>250</v>
       </c>
@@ -3068,7 +3408,7 @@
         <v>0.12555072400000003</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.83884152199999995</v>
       </c>
       <c r="P12">
@@ -3080,31 +3420,31 @@
         <v>2.29736E-2</v>
       </c>
       <c r="R12">
+        <f t="shared" si="5"/>
+        <v>0.96199039999999991</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>3.3872901408450704</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>3.8290901408450706</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>3.2723178455220853E-2</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="2"/>
-        <v>0.96199039999999991</v>
-      </c>
-      <c r="S12">
+        <v>0.115379890195663</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="3"/>
-        <v>3.3872901408450704</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="4"/>
-        <v>3.8290901408450706</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
-        <v>3.2723178455220853E-2</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="6"/>
-        <v>0.115379890195663</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="7"/>
         <v>0.85189693134911615</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>250</v>
       </c>
@@ -3147,7 +3487,7 @@
         <v>6.9482009999999997E-2</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.87774576400000004</v>
       </c>
       <c r="P13">
@@ -3159,31 +3499,31 @@
         <v>1.2714E-2</v>
       </c>
       <c r="R13">
+        <f t="shared" si="5"/>
+        <v>0.96500200000000003</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>3.3978943661971832</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>3.6423943661971832</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>5.0982947295154867E-2</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="2"/>
-        <v>0.96500200000000003</v>
-      </c>
-      <c r="S13">
+        <v>6.7126174548548009E-2</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="3"/>
-        <v>3.3978943661971832</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="4"/>
-        <v>3.6423943661971832</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="5"/>
-        <v>5.0982947295154867E-2</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="6"/>
-        <v>6.7126174548548009E-2</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="7"/>
         <v>0.88189087815629719</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>250</v>
       </c>
@@ -3226,7 +3566,7 @@
         <v>-8.5253999999999723E-5</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.92256095000000005</v>
       </c>
       <c r="P14">
@@ -3238,31 +3578,31 @@
         <v>-1.5599999999999949E-5</v>
       </c>
       <c r="R14">
+        <f t="shared" si="5"/>
+        <v>0.96727960000000002</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>3.4059140845070424</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>3.4056140845070422</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>8.0103027891807482E-2</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="2"/>
-        <v>0.96727960000000002</v>
-      </c>
-      <c r="S14">
+        <v>-8.8089840056972745E-5</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="3"/>
-        <v>3.4059140845070424</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="4"/>
-        <v>3.4056140845070422</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="5"/>
-        <v>8.0103027891807482E-2</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="6"/>
-        <v>-8.8089840056972745E-5</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="7"/>
         <v>0.91998506194824958</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
         <v>3</v>
       </c>
@@ -3279,7 +3619,7 @@
       <c r="M16" s="45"/>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3306,7 +3646,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -3333,7 +3673,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>100.01</v>
       </c>
@@ -3420,7 +3760,7 @@
         <v>1.7714172E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>100</v>
       </c>
@@ -3507,7 +3847,7 @@
         <v>1.6053855339999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>100</v>
       </c>
@@ -3594,7 +3934,7 @@
         <v>1.4429456739999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>100</v>
       </c>
@@ -3681,7 +4021,7 @@
         <v>1.291353196E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>100</v>
       </c>
@@ -3768,7 +4108,7 @@
         <v>1.14672461E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
@@ -3798,7 +4138,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
@@ -3831,27 +4171,27 @@
         <v>7.6369999999999993E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
@@ -3860,7 +4200,7 @@
         <v>0.98226800000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3884,20 +4224,20 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
@@ -3914,7 +4254,7 @@
       <c r="L1" s="45"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3943,7 +4283,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3972,7 +4312,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>250</v>
       </c>
@@ -4019,7 +4359,7 @@
         <v>0.75321808800000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>250</v>
       </c>
@@ -4066,7 +4406,7 @@
         <v>0.79638502999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>250</v>
       </c>
@@ -4113,7 +4453,7 @@
         <v>0.83884152199999995</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>250</v>
       </c>
@@ -4160,7 +4500,7 @@
         <v>0.87774576400000004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>250</v>
       </c>
@@ -4207,7 +4547,7 @@
         <v>0.92256095000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>3</v>
       </c>
@@ -4224,7 +4564,7 @@
       <c r="L10" s="45"/>
       <c r="M10" s="46"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4251,7 +4591,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4278,7 +4618,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>100.01</v>
       </c>
@@ -4325,7 +4665,7 @@
         <v>0.90323670999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -4372,7 +4712,7 @@
         <v>0.92051485399999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>100</v>
       </c>
@@ -4419,7 +4759,7 @@
         <v>0.93867395600000003</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>100</v>
       </c>
@@ -4466,7 +4806,7 @@
         <v>0.95598051799999995</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>100</v>
       </c>
@@ -4513,7 +4853,7 @@
         <v>0.97283239200000005</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>25</v>
       </c>
@@ -4524,7 +4864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>52.024000000000001</v>
       </c>
@@ -4535,8 +4875,8 @@
         <v>284.18</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>298.2</v>
       </c>
@@ -4595,7 +4935,7 @@
         <v>0.34101387828053875</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>298.2</v>
       </c>
@@ -4651,7 +4991,7 @@
         <v>0.86912932324591818</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>298.2</v>
       </c>
@@ -4707,7 +5047,7 @@
         <v>9.5789373635859251E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>298.2</v>
       </c>
@@ -4763,7 +5103,7 @@
         <v>0.27356310830286978</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>0.34079999999999999</v>
       </c>
@@ -4795,7 +5135,7 @@
         <v>0.28674020054555582</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J30">
         <v>0.86939999999999995</v>
       </c>
@@ -4824,7 +5164,7 @@
         <v>0.74255493120599314</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>9.5299999999999996E-2</v>
       </c>
@@ -4853,7 +5193,7 @@
         <v>8.5562741265094042E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J32">
         <v>0.27339999999999998</v>
       </c>
@@ -4882,7 +5222,7 @@
         <v>0.22255103440493551</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>0</v>
       </c>
@@ -4891,7 +5231,7 @@
         <v>0.28674020054555582</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1</v>
       </c>
@@ -4900,7 +5240,7 @@
         <v>8.5562741265094042E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>0</v>
       </c>
@@ -4909,7 +5249,7 @@
         <v>0.74255493120599314</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>1</v>
       </c>
@@ -4918,8 +5258,8 @@
         <v>0.22255103440493551</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="49"/>
       <c r="C41" s="50"/>
       <c r="D41" s="51"/>
@@ -4938,7 +5278,7 @@
       <c r="M41" s="53"/>
       <c r="N41" s="54"/>
     </row>
-    <row r="42" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
         <v>39</v>
       </c>
@@ -4979,7 +5319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:14" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="39" t="s">
         <v>40</v>
       </c>
@@ -5020,7 +5360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="55" t="s">
         <v>37</v>
       </c>
@@ -5063,7 +5403,7 @@
         <v>0.34101387828053875</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="47"/>
       <c r="C45" s="26">
         <v>298.2</v>
@@ -5104,7 +5444,7 @@
         <v>0.86912932324591818</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="47" t="s">
         <v>38</v>
       </c>
@@ -5147,7 +5487,7 @@
         <v>9.5789373635859251E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="48"/>
       <c r="C47" s="27">
         <v>298.2</v>
@@ -5188,7 +5528,7 @@
         <v>0.27356310830286978</v>
       </c>
     </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L83" s="12"/>
     </row>
   </sheetData>
@@ -5203,4 +5543,2175 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56B3A6-2AC9-4477-88D1-B2323B5316BF}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13">
+        <v>52.024000000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>120.02</v>
+      </c>
+      <c r="G3" s="13">
+        <v>284.18</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>298.2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="H7" s="8">
+        <f>(F7-C7)/C7</f>
+        <v>0.17539267015706819</v>
+      </c>
+      <c r="I7" s="8">
+        <f>(G7-D7)/D7</f>
+        <v>-1.4508445214378484E-2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="L7" s="13">
+        <f>F7*E3</f>
+        <v>4.6717552000000007</v>
+      </c>
+      <c r="M7" s="13">
+        <f>G7*G3</f>
+        <v>258.66063600000001</v>
+      </c>
+      <c r="N7" s="13">
+        <f>L7/(L7+M7)</f>
+        <v>1.7740906003666748E-2</v>
+      </c>
+      <c r="O7" s="13">
+        <f>N7*(L7+M7)</f>
+        <v>4.6717552000000007</v>
+      </c>
+      <c r="P7" s="13">
+        <f>L7+M7</f>
+        <v>263.33239120000002</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>N7/E3*1000</f>
+        <v>0.34101387828053875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>298.2</v>
+      </c>
+      <c r="B8" s="10">
+        <v>250000</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.17774999999999999</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.7944</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" ref="H8:I10" si="0">(F8-C8)/C8</f>
+        <v>0.15611814345991559</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.9017041244751752E-2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13">
+        <f>F8*E3</f>
+        <v>10.690932</v>
+      </c>
+      <c r="M8" s="13">
+        <f>G8*G3</f>
+        <v>225.75259199999999</v>
+      </c>
+      <c r="N8" s="13">
+        <f>L8/(L8+M8)</f>
+        <v>4.5215583912545647E-2</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" ref="O8:O10" si="1">N8*(L8+M8)</f>
+        <v>10.690932</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" ref="P8:P10" si="2">L8+M8</f>
+        <v>236.443524</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>N8/E3*1000</f>
+        <v>0.86912932324591818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>298.2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>100000</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666668</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.7874910430955437E-3</v>
+      </c>
+      <c r="J9" s="13">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13">
+        <f>F9*F3</f>
+        <v>3.2165360000000001</v>
+      </c>
+      <c r="M9" s="13">
+        <f>G9*G3</f>
+        <v>276.56397599999997</v>
+      </c>
+      <c r="N9" s="13">
+        <f>L9/(L9+M9)</f>
+        <v>1.1496640623775827E-2</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="1"/>
+        <v>3.2165360000000001</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="2"/>
+        <v>279.78051199999999</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>N9/F3*1000</f>
+        <v>9.5789373635859251E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>298.2</v>
+      </c>
+      <c r="B10" s="10">
+        <v>250000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>6.0749999999999998E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22469135802469128</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.9475879773237522E-3</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13">
+        <f>F10*F3</f>
+        <v>8.9294879999999992</v>
+      </c>
+      <c r="M10" s="13">
+        <f>G10*G3</f>
+        <v>263.03700800000001</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" ref="N10" si="3">L10/(L10+M10)</f>
+        <v>3.2833044258510427E-2</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="1"/>
+        <v>8.9294879999999992</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="2"/>
+        <v>271.96649600000001</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>N10/F3*1000</f>
+        <v>0.27356310830286978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="L11" s="13">
+        <f>C7*E3</f>
+        <v>3.9746335999999998</v>
+      </c>
+      <c r="M11" s="13">
+        <f>D7*G3</f>
+        <v>262.46864799999997</v>
+      </c>
+      <c r="N11" s="13">
+        <f>L11/(L11+M11)</f>
+        <v>1.4917372193181996E-2</v>
+      </c>
+      <c r="O11" s="13">
+        <f>N11*(L11+M11)</f>
+        <v>3.9746335999999998</v>
+      </c>
+      <c r="P11" s="13">
+        <f>L11+M11</f>
+        <v>266.44328159999998</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>N11/E3*1000</f>
+        <v>0.28674020054555582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13">
+        <f>C8*E3</f>
+        <v>9.2472659999999998</v>
+      </c>
+      <c r="M12" s="13">
+        <f>D8*G3</f>
+        <v>230.128964</v>
+      </c>
+      <c r="N12" s="13">
+        <f>L12/(L12+M12)</f>
+        <v>3.863067774106059E-2</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" ref="O12:O14" si="4">N12*(L12+M12)</f>
+        <v>9.2472659999999998</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" ref="P12:P14" si="5">L12+M12</f>
+        <v>239.37622999999999</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>N12/E3*1000</f>
+        <v>0.74255493120599314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
+        <f>C9*F3</f>
+        <v>2.8804799999999999</v>
+      </c>
+      <c r="M13" s="13">
+        <f>D9*G3</f>
+        <v>277.61544200000003</v>
+      </c>
+      <c r="N13" s="13">
+        <f>L13/(L13+M13)</f>
+        <v>1.0269240206636587E-2</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8804799999999999</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="5"/>
+        <v>280.49592200000001</v>
+      </c>
+      <c r="Q13" s="13">
+        <f>N13/F3*1000</f>
+        <v>8.5562741265094042E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
+        <f>C10*F3</f>
+        <v>7.2912149999999993</v>
+      </c>
+      <c r="M14" s="13">
+        <f>D10*G3</f>
+        <v>265.67988200000002</v>
+      </c>
+      <c r="N14" s="13">
+        <f>L14/(L14+M14)</f>
+        <v>2.6710575149280359E-2</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="4"/>
+        <v>7.2912149999999993</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="5"/>
+        <v>272.97109700000004</v>
+      </c>
+      <c r="Q14" s="13">
+        <f>N14/F3*1000</f>
+        <v>0.22255103440493551</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="56">
+        <v>2499.8000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="56">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="56">
+        <v>2500.3000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="56">
+        <v>2499.6999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="57">
+        <v>2500.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC97C6A-1663-4E84-B86B-1D6606690EB5}">
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13">
+        <v>226.02</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>249.98000000000002</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="60">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="E10" s="65">
+        <v>1.2E-4</v>
+      </c>
+      <c r="F10" s="65">
+        <v>0.92171999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>226.02</v>
+      </c>
+      <c r="H10" s="3">
+        <f>D10*G10</f>
+        <v>208.27743000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <f>E10*G10</f>
+        <v>2.7122400000000001E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <f>F10*G10</f>
+        <v>208.32715440000001</v>
+      </c>
+      <c r="K10" s="3">
+        <f>I10/1000</f>
+        <v>2.71224E-5</v>
+      </c>
+      <c r="L10" s="3">
+        <f>J10/1000</f>
+        <v>0.20832715440000002</v>
+      </c>
+      <c r="M10" s="3">
+        <f>1-K10-L10</f>
+        <v>0.79164572319999993</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13">
+        <f t="shared" ref="O10:O14" si="0">E10*120/1000</f>
+        <v>1.4399999999999999E-5</v>
+      </c>
+      <c r="P10" s="13">
+        <f>F10*52/1000</f>
+        <v>4.7929439999999997E-2</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>1-P10-O10</f>
+        <v>0.95205616000000004</v>
+      </c>
+      <c r="R10" s="13">
+        <f>Q10/226*1000</f>
+        <v>4.2126378761061947</v>
+      </c>
+      <c r="S10" s="13">
+        <f>R10+F10</f>
+        <v>5.1343578761061943</v>
+      </c>
+      <c r="T10" s="13">
+        <f>E10/S10</f>
+        <v>2.3371958654936199E-5</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" ref="U10:U14" si="1">F10/S10</f>
+        <v>0.17952001442856494</v>
+      </c>
+      <c r="V10" s="13">
+        <f>1-U10-T10</f>
+        <v>0.82045661361278011</v>
+      </c>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>250</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="E11" s="65">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="F11" s="65">
+        <v>0.68457000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>226.02</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D11*G11</f>
+        <v>172.747086</v>
+      </c>
+      <c r="I11" s="3">
+        <f>E11*G11</f>
+        <v>17.991192000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <f>F11*G11</f>
+        <v>154.72651140000002</v>
+      </c>
+      <c r="K11" s="3">
+        <f>I11/1000</f>
+        <v>1.7991192000000003E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <f>J11/1000</f>
+        <v>0.15472651140000002</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" ref="M11:M14" si="2">1-K11-L11</f>
+        <v>0.82728229659999997</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13">
+        <f t="shared" si="0"/>
+        <v>9.5519999999999997E-3</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" ref="P11:P14" si="3">F11*52/1000</f>
+        <v>3.559764E-2</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" ref="Q11:Q15" si="4">1-P11-O11</f>
+        <v>0.95485036000000001</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" ref="R11:R14" si="5">Q11/226*1000</f>
+        <v>4.2250015929203544</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" ref="S11:S14" si="6">R11+F11</f>
+        <v>4.9095715929203543</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" ref="T11:T14" si="7">E11/S11</f>
+        <v>1.6213227263002724E-2</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1394357912994193</v>
+      </c>
+      <c r="V11" s="13">
+        <f t="shared" ref="V10:V14" si="8">1-U11-T11</f>
+        <v>0.84435098143757803</v>
+      </c>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>250.03000000000003</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="60">
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="E12" s="65">
+        <v>0.15235000000000001</v>
+      </c>
+      <c r="F12" s="65">
+        <v>0.45722000000000002</v>
+      </c>
+      <c r="G12" s="3">
+        <v>226.02</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" ref="H12:H14" si="9">D12*G12</f>
+        <v>137.78179200000002</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12" si="10">E12*G12</f>
+        <v>34.434147000000003</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12:J14" si="11">F12*G12</f>
+        <v>103.34086440000002</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ref="K12:L14" si="12">I12/1000</f>
+        <v>3.4434147000000005E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="12"/>
+        <v>0.10334086440000001</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86222498859999996</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.8282E-2</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="3"/>
+        <v>2.3775439999999998E-2</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="4"/>
+        <v>0.95794256</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2386838938053097</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="6"/>
+        <v>4.6959038938053101</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="7"/>
+        <v>3.244316822603107E-2</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="1"/>
+        <v>9.7365706441128477E-2</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="8"/>
+        <v>0.87019112533284038</v>
+      </c>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>249.96999999999997</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="60">
+        <v>0.4541</v>
+      </c>
+      <c r="E13" s="65">
+        <v>0.22858000000000001</v>
+      </c>
+      <c r="F13" s="65">
+        <v>0.2253</v>
+      </c>
+      <c r="G13" s="3">
+        <v>226.02</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="9"/>
+        <v>102.635682</v>
+      </c>
+      <c r="I13" s="3">
+        <f>E13*G13</f>
+        <v>51.663651600000001</v>
+      </c>
+      <c r="J13" s="3">
+        <f>F13*G13</f>
+        <v>50.922305999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <f>I13/1000</f>
+        <v>5.1663651599999999E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <f>J13/1000</f>
+        <v>5.0922306000000001E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8974140424</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7429600000000002E-2</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="3"/>
+        <v>1.17156E-2</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9608547999999999</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2515699115044239</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="6"/>
+        <v>4.4768699115044237</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="7"/>
+        <v>5.1057994652158017E-2</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0325339903452629E-2</v>
+      </c>
+      <c r="V13" s="13">
+        <f t="shared" si="8"/>
+        <v>0.89861666544438934</v>
+      </c>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>250.05</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="71">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="E14" s="76">
+        <v>0.30814000000000002</v>
+      </c>
+      <c r="F14" s="76">
+        <v>-3.7699999999999999E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>226.02</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="9"/>
+        <v>68.868294000000006</v>
+      </c>
+      <c r="I14" s="3">
+        <f>E14*G14</f>
+        <v>69.645802800000013</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="11"/>
+        <v>-0.85209540000000006</v>
+      </c>
+      <c r="K14" s="3">
+        <f>I14/1000</f>
+        <v>6.9645802800000017E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="12"/>
+        <v>-8.5209540000000001E-4</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93120629259999999</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13">
+        <f t="shared" si="0"/>
+        <v>3.6976800000000004E-2</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="3"/>
+        <v>-1.9604E-4</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="4"/>
+        <v>0.96321924000000003</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2620320353982297</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="6"/>
+        <v>4.2582620353982295</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="7"/>
+        <v>7.2362855418122013E-2</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="1"/>
+        <v>-8.8533771962848043E-4</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="8"/>
+        <v>0.92852248230150647</v>
+      </c>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13">
+        <f>B21/10</f>
+        <v>249.98000000000002</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13">
+        <f t="shared" ref="P18:P21" si="13">B22/10</f>
+        <v>250</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13">
+        <f t="shared" si="13"/>
+        <v>250.03000000000003</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13">
+        <f t="shared" si="13"/>
+        <v>249.96999999999997</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
+        <v>2390.3530999999998</v>
+      </c>
+      <c r="B21" s="56">
+        <v>2499.8000000000002</v>
+      </c>
+      <c r="C21" s="59">
+        <v>2491.9119999999998</v>
+      </c>
+      <c r="D21" s="59">
+        <v>4.7949000000000002</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F21" s="61">
+        <v>3.1E-4</v>
+      </c>
+      <c r="G21" s="62">
+        <v>25</v>
+      </c>
+      <c r="H21" s="63">
+        <v>0</v>
+      </c>
+      <c r="I21" s="59">
+        <v>1</v>
+      </c>
+      <c r="J21" s="64">
+        <v>0</v>
+      </c>
+      <c r="K21" s="65">
+        <v>1.2E-4</v>
+      </c>
+      <c r="L21" s="65">
+        <v>0.92171999999999998</v>
+      </c>
+      <c r="M21" s="66">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="N21" s="67">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13">
+        <f t="shared" si="13"/>
+        <v>250.05</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="56">
+        <v>2500</v>
+      </c>
+      <c r="C22" s="59">
+        <v>2481.002</v>
+      </c>
+      <c r="D22" s="59">
+        <v>4.5178000000000003</v>
+      </c>
+      <c r="E22" s="60">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="F22" s="61">
+        <v>1.082E-2</v>
+      </c>
+      <c r="G22" s="62">
+        <v>25</v>
+      </c>
+      <c r="H22" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="59">
+        <v>2.8641999999999999</v>
+      </c>
+      <c r="J22" s="64">
+        <v>0.19747999999999999</v>
+      </c>
+      <c r="K22" s="65">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="L22" s="65">
+        <v>0.68457000000000001</v>
+      </c>
+      <c r="M22" s="66">
+        <v>5.4099999999999999E-3</v>
+      </c>
+      <c r="N22" s="67">
+        <v>6.0400000000000002E-3</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="56">
+        <v>2500.3000000000002</v>
+      </c>
+      <c r="C23" s="59">
+        <v>2469.2829999999999</v>
+      </c>
+      <c r="D23" s="59">
+        <v>4.2077</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="F23" s="61">
+        <v>1.5350000000000001E-2</v>
+      </c>
+      <c r="G23" s="62">
+        <v>25</v>
+      </c>
+      <c r="H23" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="59">
+        <v>2.9992999999999999</v>
+      </c>
+      <c r="J23" s="64">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="K23" s="65">
+        <v>0.15235000000000001</v>
+      </c>
+      <c r="L23" s="65">
+        <v>0.45722000000000002</v>
+      </c>
+      <c r="M23" s="66">
+        <v>1.025E-2</v>
+      </c>
+      <c r="N23" s="67">
+        <v>1.0149999999999999E-2</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
+      <c r="B24" s="56">
+        <v>2499.6999999999998</v>
+      </c>
+      <c r="C24" s="59">
+        <v>2458.0309999999999</v>
+      </c>
+      <c r="D24" s="59">
+        <v>3.9176000000000002</v>
+      </c>
+      <c r="E24" s="60">
+        <v>0.4541</v>
+      </c>
+      <c r="F24" s="61">
+        <v>1.5980000000000001E-2</v>
+      </c>
+      <c r="G24" s="62">
+        <v>25</v>
+      </c>
+      <c r="H24" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="59">
+        <v>2.9523999999999999</v>
+      </c>
+      <c r="J24" s="64">
+        <v>0.27444000000000002</v>
+      </c>
+      <c r="K24" s="65">
+        <v>0.22858000000000001</v>
+      </c>
+      <c r="L24" s="65">
+        <v>0.2253</v>
+      </c>
+      <c r="M24" s="66">
+        <v>1.525E-2</v>
+      </c>
+      <c r="N24" s="67">
+        <v>1.453E-2</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69"/>
+      <c r="B25" s="57">
+        <v>2500.5</v>
+      </c>
+      <c r="C25" s="70">
+        <v>2448.0500000000002</v>
+      </c>
+      <c r="D25" s="70">
+        <v>3.6829000000000001</v>
+      </c>
+      <c r="E25" s="71">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="F25" s="72">
+        <v>2.085E-2</v>
+      </c>
+      <c r="G25" s="73">
+        <v>25</v>
+      </c>
+      <c r="H25" s="74">
+        <v>1</v>
+      </c>
+      <c r="I25" s="70">
+        <v>1</v>
+      </c>
+      <c r="J25" s="75">
+        <v>0</v>
+      </c>
+      <c r="K25" s="76">
+        <v>0.30814000000000002</v>
+      </c>
+      <c r="L25" s="76">
+        <v>-3.7699999999999999E-3</v>
+      </c>
+      <c r="M25" s="77">
+        <v>2.0549999999999999E-2</v>
+      </c>
+      <c r="N25" s="78">
+        <v>1.9009999999999999E-2</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>